--- a/BLDC Calculation.xlsx
+++ b/BLDC Calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucems09\Documents\Github\Pi-BLDC-Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D4F3D-7797-4959-B3A5-0C9201944062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84D46D2-E7DA-44B2-87C6-A5A591658358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8580" yWindow="-17280" windowWidth="20640" windowHeight="16824" xr2:uid="{C1DB2227-6E77-44AB-BB7A-3E79D3D49CA3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{C1DB2227-6E77-44AB-BB7A-3E79D3D49CA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="109">
   <si>
     <t>Values at nominal voltage</t>
   </si>
@@ -195,13 +195,181 @@
   </si>
   <si>
     <t>Recommended Motor driver 1.2x of V</t>
+  </si>
+  <si>
+    <t>Rsene</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Vvref</t>
+  </si>
+  <si>
+    <t>Vsox</t>
+  </si>
+  <si>
+    <t>Gcsa</t>
+  </si>
+  <si>
+    <t>Internal buck converter</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>Rfb1</t>
+  </si>
+  <si>
+    <t>Rfb2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confusing, need revisiting </t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>&gt;0.47uF</t>
+  </si>
+  <si>
+    <t>Rt, On-Time Generator and Shutdown</t>
+  </si>
+  <si>
+    <t>Ton</t>
+  </si>
+  <si>
+    <t>Rt</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Rcl</t>
+  </si>
+  <si>
+    <t>Vfb</t>
+  </si>
+  <si>
+    <t>Toff</t>
+  </si>
+  <si>
+    <t>Current Limit, Rcl (not required)</t>
+  </si>
+  <si>
+    <t>System Power Requirment</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Infineon BSC030N08NS5</t>
+  </si>
+  <si>
+    <t>Verdict</t>
+  </si>
+  <si>
+    <t>VDS​ (Voltage)</t>
+  </si>
+  <si>
+    <t>80 V</t>
+  </si>
+  <si>
+    <t>Identical</t>
+  </si>
+  <si>
+    <t>RDS(on)​ (max @ 10V)</t>
+  </si>
+  <si>
+    <t>2.8 mΩ</t>
+  </si>
+  <si>
+    <t>3.0 mΩ</t>
+  </si>
+  <si>
+    <t>Very similar, excellent performance</t>
+  </si>
+  <si>
+    <t>ID​ (Continuous)</t>
+  </si>
+  <si>
+    <t>130 A</t>
+  </si>
+  <si>
+    <t>100 A</t>
+  </si>
+  <si>
+    <t>Both far exceed motor requirements</t>
+  </si>
+  <si>
+    <t>Qg​ (Total Gate Charge, typ)</t>
+  </si>
+  <si>
+    <t>Lower gate charge, potentially more efficient switching</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>PowerPAK SO-8</t>
+  </si>
+  <si>
+    <t>SuperSO8 (similar footprint)</t>
+  </si>
+  <si>
+    <t>Both are thermally efficient packages</t>
+  </si>
+  <si>
+    <t>Vishay SIR680LDP (winner)</t>
+  </si>
+  <si>
+    <t>40.5 nC</t>
+  </si>
+  <si>
+    <t>61 nC</t>
+  </si>
+  <si>
+    <t>Shunt Resistor</t>
+  </si>
+  <si>
+    <t>Rshunt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vshunt </t>
+  </si>
+  <si>
+    <t>Power at continuous current (7.06A)</t>
+  </si>
+  <si>
+    <t>Power at max current (14.12A)</t>
+  </si>
+  <si>
+    <t>Imax (7.06A*2)</t>
+  </si>
+  <si>
+    <t>Rsense, Unidirection Current Sensing</t>
+  </si>
+  <si>
+    <t>TLRP3A30CR007FTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +385,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -226,7 +407,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -234,14 +415,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,6 +465,361 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3159565</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEB2B30-B3EA-0B04-6D2A-C45596884FFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4739640" y="6400800"/>
+          <a:ext cx="3151945" cy="295316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2961640</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1249680" cy="953466"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B40FD46-1A82-E89B-931E-EE503C14DCDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7693660" y="5090160"/>
+          <a:ext cx="1249680" cy="953466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Gain option, Gcsa:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>5 V/V</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> V/V</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>20 V/V (use this)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>40 V/V</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3200399</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>162756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5811520</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>172982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC913F79-69EF-621D-0FAE-F540CB888426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect b="11689"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7932419" y="6197796"/>
+          <a:ext cx="2597151" cy="1276416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3373119</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>21786</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5507990</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>60380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48879535-8618-D37D-A3E6-D49217333AE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8105139" y="7519866"/>
+          <a:ext cx="2134871" cy="1491474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>86936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6765781</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A42EB92-3D86-1B08-0723-489FD6419CD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4795521" y="9048056"/>
+          <a:ext cx="6708630" cy="576004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3414727</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>101522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50DBB69F-81DF-4771-6BC0-EFC7C99BA793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4948518" y="9816353"/>
+          <a:ext cx="3185604" cy="1047896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>343646</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>74704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2906059</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B793274A-06F5-896D-0085-56C59A72ECF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5072528" y="5304116"/>
+          <a:ext cx="2562413" cy="897660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52693E94-43D9-4A69-8658-E1FED08B8E02}">
-  <dimension ref="A2:C26"/>
+  <dimension ref="A2:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -808,7 +1371,350 @@
         <v>36</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <f>(B31-B32/B30*B29)</f>
+        <v>3.2984999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36">
+        <f>((2.5*(B37+B38))/B37)</f>
+        <v>3.3392857142857144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43">
+        <f>500*10^-9</f>
+        <v>5.0000000000000008E-7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44">
+        <f>((B43*B45)/(1.386*10^-10))</f>
+        <v>108225.10822510824</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56">
+        <f>(B57)/((B59)*((10^(-5)/B58)-0.285))</f>
+        <v>6614173228.3458633</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58">
+        <f>35*10^(-6)</f>
+        <v>3.4999999999999997E-5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <f>6.35*10^(-6)</f>
+        <v>6.3499999999999993E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>260</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64">
+        <f>B63/B65</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75">
+        <f>B77/B76</f>
+        <v>7.0821529745042503E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76">
+        <v>14.12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78">
+        <f>7.06^2*B75</f>
+        <v>0.35300000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79">
+        <f>14.12^2*B75</f>
+        <v>1.4120000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>